--- a/1-agent-mode-prebuilt-agents/exercise/gapminder.xlsx
+++ b/1-agent-mode-prebuilt-agents/exercise/gapminder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\ai-agents-excel-copilot-studio\1-agent-mode-prebuilt-agents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\ai-agents-excel-copilot-studio\1-agent-mode-prebuilt-agents\exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A63BF8A-642B-4CAA-9242-FD50E79350C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEBBC6A-D4CE-4C91-9496-98E135CFC363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" xr2:uid="{3BD43B6F-B785-4E23-A6D8-986BC65CBCF9}"/>
   </bookViews>
@@ -1130,6 +1130,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F33268-24B9-4FEA-B171-08731D5757AB}" name="gapminder" displayName="gapminder" ref="A1:H3676" totalsRowShown="0">
+  <autoFilter ref="A1:H3676" xr:uid="{80F33268-24B9-4FEA-B171-08731D5757AB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{04FBDDCC-399B-4D6A-8414-C6EE318D7D0C}" name="country"/>
+    <tableColumn id="2" xr3:uid="{308716C9-E771-4927-BA09-195CC00FDE8F}" name="continent"/>
+    <tableColumn id="3" xr3:uid="{6BB25F53-B1EE-4C65-ABBE-71BDB7DB3C28}" name="year"/>
+    <tableColumn id="4" xr3:uid="{380029A6-6923-4C7F-8080-3EF52CD25C08}" name="life_exp"/>
+    <tableColumn id="5" xr3:uid="{8C6B5CD5-B4D5-417D-B644-4A5E79F5178E}" name="hdi_index"/>
+    <tableColumn id="6" xr3:uid="{91E14F9E-5DA0-4AB1-8196-F909172F129E}" name="co2_consump"/>
+    <tableColumn id="7" xr3:uid="{7BDCB452-8A35-4B11-AAF7-27027AD1BB10}" name="gdp"/>
+    <tableColumn id="8" xr3:uid="{F717E8AD-E8FA-4B86-920B-2D98F3BA288C}" name="services"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1449,11 +1466,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759BA3F-6E8F-4CF0-B95A-908E95E70067}">
   <dimension ref="A1:H3676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3670" workbookViewId="0">
-      <selection activeCell="A3676" sqref="A1:H3676"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H3676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="2" max="2" width="9.515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.18359375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
@@ -96559,5 +96581,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>